--- a/natmiOut/OldD7/LR-pairs_lrc2p/Fbn1-Itgav.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Fbn1-Itgav.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.9034369512997</v>
+        <v>11.98327633333333</v>
       </c>
       <c r="H2">
-        <v>10.9034369512997</v>
+        <v>35.949829</v>
       </c>
       <c r="I2">
-        <v>0.03070592740367616</v>
+        <v>0.03345300399843466</v>
       </c>
       <c r="J2">
-        <v>0.03070592740367616</v>
+        <v>0.03345300399843466</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.835860302987</v>
+        <v>13.441269</v>
       </c>
       <c r="N2">
-        <v>10.835860302987</v>
+        <v>40.323807</v>
       </c>
       <c r="O2">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481231</v>
       </c>
       <c r="P2">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481232</v>
       </c>
       <c r="Q2">
-        <v>118.14811962671</v>
+        <v>161.070440697667</v>
       </c>
       <c r="R2">
-        <v>118.14811962671</v>
+        <v>1449.633966279003</v>
       </c>
       <c r="S2">
-        <v>0.002420077346025921</v>
+        <v>0.003001765524896302</v>
       </c>
       <c r="T2">
-        <v>0.002420077346025921</v>
+        <v>0.003001765524896302</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.9034369512997</v>
+        <v>11.98327633333333</v>
       </c>
       <c r="H3">
-        <v>10.9034369512997</v>
+        <v>35.949829</v>
       </c>
       <c r="I3">
-        <v>0.03070592740367616</v>
+        <v>0.03345300399843466</v>
       </c>
       <c r="J3">
-        <v>0.03070592740367616</v>
+        <v>0.03345300399843466</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>54.5495951744975</v>
+        <v>54.711535</v>
       </c>
       <c r="N3">
-        <v>54.5495951744975</v>
+        <v>164.134605</v>
       </c>
       <c r="O3">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="P3">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="Q3">
-        <v>594.7780717040558</v>
+        <v>655.6234425258384</v>
       </c>
       <c r="R3">
-        <v>594.7780717040558</v>
+        <v>5900.610982732545</v>
       </c>
       <c r="S3">
-        <v>0.01218308798981982</v>
+        <v>0.01221842964210874</v>
       </c>
       <c r="T3">
-        <v>0.01218308798981982</v>
+        <v>0.01221842964210875</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.9034369512997</v>
+        <v>11.98327633333333</v>
       </c>
       <c r="H4">
-        <v>10.9034369512997</v>
+        <v>35.949829</v>
       </c>
       <c r="I4">
-        <v>0.03070592740367616</v>
+        <v>0.03345300399843466</v>
       </c>
       <c r="J4">
-        <v>0.03070592740367616</v>
+        <v>0.03345300399843466</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>55.6690220757149</v>
+        <v>63.67711</v>
       </c>
       <c r="N4">
-        <v>55.6690220757149</v>
+        <v>191.03133</v>
       </c>
       <c r="O4">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800914</v>
       </c>
       <c r="P4">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800915</v>
       </c>
       <c r="Q4">
-        <v>606.9836723430685</v>
+        <v>763.0604052380634</v>
       </c>
       <c r="R4">
-        <v>606.9836723430685</v>
+        <v>6867.54364714257</v>
       </c>
       <c r="S4">
-        <v>0.01243310041231492</v>
+        <v>0.01422066276056446</v>
       </c>
       <c r="T4">
-        <v>0.01243310041231492</v>
+        <v>0.01422066276056446</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.9034369512997</v>
+        <v>11.98327633333333</v>
       </c>
       <c r="H5">
-        <v>10.9034369512997</v>
+        <v>35.949829</v>
       </c>
       <c r="I5">
-        <v>0.03070592740367616</v>
+        <v>0.03345300399843466</v>
       </c>
       <c r="J5">
-        <v>0.03070592740367616</v>
+        <v>0.03345300399843466</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.4308554533149</v>
+        <v>17.96553866666667</v>
       </c>
       <c r="N5">
-        <v>16.4308554533149</v>
+        <v>53.896616</v>
       </c>
       <c r="O5">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="P5">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="Q5">
-        <v>179.1527964911379</v>
+        <v>215.2860143198516</v>
       </c>
       <c r="R5">
-        <v>179.1527964911379</v>
+        <v>1937.574128878664</v>
       </c>
       <c r="S5">
-        <v>0.003669661655515491</v>
+        <v>0.004012146070865145</v>
       </c>
       <c r="T5">
-        <v>0.003669661655515491</v>
+        <v>0.004012146070865145</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>330.670138059846</v>
+        <v>332.3726806666667</v>
       </c>
       <c r="H6">
-        <v>330.670138059846</v>
+        <v>997.1180420000001</v>
       </c>
       <c r="I6">
-        <v>0.9312231821195512</v>
+        <v>0.9278651602470024</v>
       </c>
       <c r="J6">
-        <v>0.9312231821195512</v>
+        <v>0.9278651602470025</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.835860302987</v>
+        <v>13.441269</v>
       </c>
       <c r="N6">
-        <v>10.835860302987</v>
+        <v>40.323807</v>
       </c>
       <c r="O6">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481231</v>
       </c>
       <c r="P6">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481232</v>
       </c>
       <c r="Q6">
-        <v>3583.095422385916</v>
+        <v>4467.510609091766</v>
       </c>
       <c r="R6">
-        <v>3583.095422385916</v>
+        <v>40207.5954818259</v>
       </c>
       <c r="S6">
-        <v>0.0733940420529975</v>
+        <v>0.08325810291692076</v>
       </c>
       <c r="T6">
-        <v>0.0733940420529975</v>
+        <v>0.08325810291692078</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>330.670138059846</v>
+        <v>332.3726806666667</v>
       </c>
       <c r="H7">
-        <v>330.670138059846</v>
+        <v>997.1180420000001</v>
       </c>
       <c r="I7">
-        <v>0.9312231821195512</v>
+        <v>0.9278651602470024</v>
       </c>
       <c r="J7">
-        <v>0.9312231821195512</v>
+        <v>0.9278651602470025</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>54.5495951744975</v>
+        <v>54.711535</v>
       </c>
       <c r="N7">
-        <v>54.5495951744975</v>
+        <v>164.134605</v>
       </c>
       <c r="O7">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="P7">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="Q7">
-        <v>18037.9221674598</v>
+        <v>18184.61955133816</v>
       </c>
       <c r="R7">
-        <v>18037.9221674598</v>
+        <v>163661.5759620434</v>
       </c>
       <c r="S7">
-        <v>0.3694783035461825</v>
+        <v>0.3388949816994743</v>
       </c>
       <c r="T7">
-        <v>0.3694783035461825</v>
+        <v>0.3388949816994744</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>330.670138059846</v>
+        <v>332.3726806666667</v>
       </c>
       <c r="H8">
-        <v>330.670138059846</v>
+        <v>997.1180420000001</v>
       </c>
       <c r="I8">
-        <v>0.9312231821195512</v>
+        <v>0.9278651602470024</v>
       </c>
       <c r="J8">
-        <v>0.9312231821195512</v>
+        <v>0.9278651602470025</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>55.6690220757149</v>
+        <v>63.67711</v>
       </c>
       <c r="N8">
-        <v>55.6690220757149</v>
+        <v>191.03133</v>
       </c>
       <c r="O8">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800914</v>
       </c>
       <c r="P8">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800915</v>
       </c>
       <c r="Q8">
-        <v>18408.08321543326</v>
+        <v>21164.53174780621</v>
       </c>
       <c r="R8">
-        <v>18408.08321543326</v>
+        <v>190480.7857302559</v>
       </c>
       <c r="S8">
-        <v>0.3770604670999669</v>
+        <v>0.3944296760843105</v>
       </c>
       <c r="T8">
-        <v>0.3770604670999669</v>
+        <v>0.3944296760843105</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>330.670138059846</v>
+        <v>332.3726806666667</v>
       </c>
       <c r="H9">
-        <v>330.670138059846</v>
+        <v>997.1180420000001</v>
       </c>
       <c r="I9">
-        <v>0.9312231821195512</v>
+        <v>0.9278651602470024</v>
       </c>
       <c r="J9">
-        <v>0.9312231821195512</v>
+        <v>0.9278651602470025</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.4308554533149</v>
+        <v>17.96553866666667</v>
       </c>
       <c r="N9">
-        <v>16.4308554533149</v>
+        <v>53.896616</v>
       </c>
       <c r="O9">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="P9">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="Q9">
-        <v>5433.193241189012</v>
+        <v>5971.254246260653</v>
       </c>
       <c r="R9">
-        <v>5433.193241189012</v>
+        <v>53741.28821634588</v>
       </c>
       <c r="S9">
-        <v>0.1112903694204043</v>
+        <v>0.1112823995462967</v>
       </c>
       <c r="T9">
-        <v>0.1112903694204043</v>
+        <v>0.1112823995462968</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.0665280973946708</v>
+        <v>0.08615933333333332</v>
       </c>
       <c r="H10">
-        <v>0.0665280973946708</v>
+        <v>0.258478</v>
       </c>
       <c r="I10">
-        <v>0.000187354403756327</v>
+        <v>0.0002405259164795302</v>
       </c>
       <c r="J10">
-        <v>0.000187354403756327</v>
+        <v>0.0002405259164795302</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.835860302987</v>
+        <v>13.441269</v>
       </c>
       <c r="N10">
-        <v>10.835860302987</v>
+        <v>40.323807</v>
       </c>
       <c r="O10">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481231</v>
       </c>
       <c r="P10">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481232</v>
       </c>
       <c r="Q10">
-        <v>0.7208891695921662</v>
+        <v>1.158090776194</v>
       </c>
       <c r="R10">
-        <v>0.7208891695921662</v>
+        <v>10.422816985746</v>
       </c>
       <c r="S10">
-        <v>1.476627434983766E-05</v>
+        <v>2.158258803801671E-05</v>
       </c>
       <c r="T10">
-        <v>1.476627434983766E-05</v>
+        <v>2.158258803801671E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.0665280973946708</v>
+        <v>0.08615933333333332</v>
       </c>
       <c r="H11">
-        <v>0.0665280973946708</v>
+        <v>0.258478</v>
       </c>
       <c r="I11">
-        <v>0.000187354403756327</v>
+        <v>0.0002405259164795302</v>
       </c>
       <c r="J11">
-        <v>0.000187354403756327</v>
+        <v>0.0002405259164795302</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>54.5495951744975</v>
+        <v>54.711535</v>
       </c>
       <c r="N11">
-        <v>54.5495951744975</v>
+        <v>164.134605</v>
       </c>
       <c r="O11">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="P11">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="Q11">
-        <v>3.629080780608834</v>
+        <v>4.713909381243333</v>
       </c>
       <c r="R11">
-        <v>3.629080780608834</v>
+        <v>42.42518443119</v>
       </c>
       <c r="S11">
-        <v>7.433597937739833E-05</v>
+        <v>8.785007731282904E-05</v>
       </c>
       <c r="T11">
-        <v>7.433597937739833E-05</v>
+        <v>8.785007731282905E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.0665280973946708</v>
+        <v>0.08615933333333332</v>
       </c>
       <c r="H12">
-        <v>0.0665280973946708</v>
+        <v>0.258478</v>
       </c>
       <c r="I12">
-        <v>0.000187354403756327</v>
+        <v>0.0002405259164795302</v>
       </c>
       <c r="J12">
-        <v>0.000187354403756327</v>
+        <v>0.0002405259164795302</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>55.6690220757149</v>
+        <v>63.67711</v>
       </c>
       <c r="N12">
-        <v>55.6690220757149</v>
+        <v>191.03133</v>
       </c>
       <c r="O12">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800914</v>
       </c>
       <c r="P12">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800915</v>
       </c>
       <c r="Q12">
-        <v>3.70355412251924</v>
+        <v>5.486377346193333</v>
       </c>
       <c r="R12">
-        <v>3.70355412251924</v>
+        <v>49.37739611574</v>
       </c>
       <c r="S12">
-        <v>7.586144798586758E-05</v>
+        <v>0.0001022460626732099</v>
       </c>
       <c r="T12">
-        <v>7.586144798586758E-05</v>
+        <v>0.00010224606267321</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.0665280973946708</v>
+        <v>0.08615933333333332</v>
       </c>
       <c r="H13">
-        <v>0.0665280973946708</v>
+        <v>0.258478</v>
       </c>
       <c r="I13">
-        <v>0.000187354403756327</v>
+        <v>0.0002405259164795302</v>
       </c>
       <c r="J13">
-        <v>0.000187354403756327</v>
+        <v>0.0002405259164795302</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.4308554533149</v>
+        <v>17.96553866666667</v>
       </c>
       <c r="N13">
-        <v>16.4308554533149</v>
+        <v>53.896616</v>
       </c>
       <c r="O13">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="P13">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="Q13">
-        <v>1.093113551875892</v>
+        <v>1.547898834494222</v>
       </c>
       <c r="R13">
-        <v>1.093113551875892</v>
+        <v>13.931089510448</v>
       </c>
       <c r="S13">
-        <v>2.239070204322338E-05</v>
+        <v>2.884718845547445E-05</v>
       </c>
       <c r="T13">
-        <v>2.239070204322338E-05</v>
+        <v>2.884718845547446E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.4521501869691</v>
+        <v>13.77014866666667</v>
       </c>
       <c r="H14">
-        <v>13.4521501869691</v>
+        <v>41.310446</v>
       </c>
       <c r="I14">
-        <v>0.03788353607301637</v>
+        <v>0.03844130983808348</v>
       </c>
       <c r="J14">
-        <v>0.03788353607301637</v>
+        <v>0.03844130983808348</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.835860302987</v>
+        <v>13.441269</v>
       </c>
       <c r="N14">
-        <v>10.835860302987</v>
+        <v>40.323807</v>
       </c>
       <c r="O14">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481231</v>
       </c>
       <c r="P14">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481232</v>
       </c>
       <c r="Q14">
-        <v>145.7656202007976</v>
+        <v>185.088272398658</v>
       </c>
       <c r="R14">
-        <v>145.7656202007976</v>
+        <v>1665.794451587922</v>
       </c>
       <c r="S14">
-        <v>0.002985778160430566</v>
+        <v>0.003449370304957231</v>
       </c>
       <c r="T14">
-        <v>0.002985778160430566</v>
+        <v>0.003449370304957232</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.4521501869691</v>
+        <v>13.77014866666667</v>
       </c>
       <c r="H15">
-        <v>13.4521501869691</v>
+        <v>41.310446</v>
       </c>
       <c r="I15">
-        <v>0.03788353607301637</v>
+        <v>0.03844130983808348</v>
       </c>
       <c r="J15">
-        <v>0.03788353607301637</v>
+        <v>0.03844130983808348</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>54.5495951744975</v>
+        <v>54.711535</v>
       </c>
       <c r="N15">
-        <v>54.5495951744975</v>
+        <v>164.134605</v>
       </c>
       <c r="O15">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="P15">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="Q15">
-        <v>733.8093469257052</v>
+        <v>753.3859707315365</v>
       </c>
       <c r="R15">
-        <v>733.8093469257052</v>
+        <v>6780.473736583829</v>
       </c>
       <c r="S15">
-        <v>0.01503092374561583</v>
+        <v>0.01404036658797828</v>
       </c>
       <c r="T15">
-        <v>0.01503092374561583</v>
+        <v>0.01404036658797828</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.4521501869691</v>
+        <v>13.77014866666667</v>
       </c>
       <c r="H16">
-        <v>13.4521501869691</v>
+        <v>41.310446</v>
       </c>
       <c r="I16">
-        <v>0.03788353607301637</v>
+        <v>0.03844130983808348</v>
       </c>
       <c r="J16">
-        <v>0.03788353607301637</v>
+        <v>0.03844130983808348</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>55.6690220757149</v>
+        <v>63.67711</v>
       </c>
       <c r="N16">
-        <v>55.6690220757149</v>
+        <v>191.03133</v>
       </c>
       <c r="O16">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800914</v>
       </c>
       <c r="P16">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800915</v>
       </c>
       <c r="Q16">
-        <v>748.8680457242151</v>
+        <v>876.8432713636865</v>
       </c>
       <c r="R16">
-        <v>748.8680457242151</v>
+        <v>7891.58944227318</v>
       </c>
       <c r="S16">
-        <v>0.01533937737092992</v>
+        <v>0.01634116037254333</v>
       </c>
       <c r="T16">
-        <v>0.01533937737092992</v>
+        <v>0.01634116037254333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.4521501869691</v>
+        <v>13.77014866666667</v>
       </c>
       <c r="H17">
-        <v>13.4521501869691</v>
+        <v>41.310446</v>
       </c>
       <c r="I17">
-        <v>0.03788353607301637</v>
+        <v>0.03844130983808348</v>
       </c>
       <c r="J17">
-        <v>0.03788353607301637</v>
+        <v>0.03844130983808348</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.4308554533149</v>
+        <v>17.96553866666667</v>
       </c>
       <c r="N17">
-        <v>16.4308554533149</v>
+        <v>53.896616</v>
       </c>
       <c r="O17">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="P17">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="Q17">
-        <v>221.0303352583723</v>
+        <v>247.3881383167484</v>
       </c>
       <c r="R17">
-        <v>221.0303352583723</v>
+        <v>2226.493244850736</v>
       </c>
       <c r="S17">
-        <v>0.004527456796040052</v>
+        <v>0.004610412572604634</v>
       </c>
       <c r="T17">
-        <v>0.004527456796040052</v>
+        <v>0.004610412572604636</v>
       </c>
     </row>
   </sheetData>
